--- a/projects/current/hattrick/z_CA.xlsx
+++ b/projects/current/hattrick/z_CA.xlsx
@@ -379,9 +379,6 @@
     <t>J.G. Peñuela</t>
   </si>
   <si>
-    <t>R. Montero</t>
-  </si>
-  <si>
     <t>ANO</t>
   </si>
   <si>
@@ -395,6 +392,9 @@
   </si>
   <si>
     <t>Delantero</t>
+  </si>
+  <si>
+    <t>J. G. de Minaya</t>
   </si>
 </sst>
 </file>
@@ -13759,8 +13759,8 @@
   </sheetPr>
   <dimension ref="A1:AS106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X56" sqref="X56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13768,7 +13768,7 @@
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="4.5703125" bestFit="1" customWidth="1"/>
@@ -13860,11 +13860,11 @@
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="N9" s="21">
         <f>SUM(N11:N25)</f>
-        <v>2185.8159999999998</v>
+        <v>1964.2160000000001</v>
       </c>
       <c r="AH9" s="21">
         <f>SUM(AH11:AH25)</f>
-        <v>25139.256000000001</v>
+        <v>25277.456000000002</v>
       </c>
       <c r="AQ9" s="22"/>
     </row>
@@ -14134,13 +14134,13 @@
         <v>102</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E12" s="12">
         <v>17</v>
       </c>
       <c r="F12" s="12">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G12" s="26">
         <v>0</v>
@@ -14149,23 +14149,22 @@
         <v>6</v>
       </c>
       <c r="I12" s="26">
+        <v>5</v>
+      </c>
+      <c r="J12" s="27">
+        <v>6</v>
+      </c>
+      <c r="K12" s="26">
+        <v>5</v>
+      </c>
+      <c r="L12" s="27">
         <v>4</v>
       </c>
-      <c r="J12" s="27">
-        <v>4</v>
-      </c>
-      <c r="K12" s="26">
-        <v>3.05</v>
-      </c>
-      <c r="L12" s="27">
-        <v>3</v>
-      </c>
       <c r="M12" s="26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N12" s="11">
-        <f>(330+125+125)*1.02</f>
-        <v>591.6</v>
+        <v>370</v>
       </c>
       <c r="O12" s="1">
         <v>0</v>
@@ -14174,23 +14173,23 @@
         <v>14</v>
       </c>
       <c r="Q12" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R12" s="16">
         <v>3.5</v>
       </c>
       <c r="S12" s="16">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T12" s="16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U12" s="16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V12" s="4">
         <f t="shared" ref="V12:V21" si="2">SUM(O12:U12)</f>
-        <v>31.5</v>
+        <v>38.5</v>
       </c>
       <c r="X12" t="s">
         <v>16</v>
@@ -14200,7 +14199,7 @@
       </c>
       <c r="Z12" s="12">
         <f>F12+(7*$AR$18)-112-112-112</f>
-        <v>81.5</v>
+        <v>46.5</v>
       </c>
       <c r="AA12" s="15">
         <f t="shared" ref="AA12:AA26" si="3">G12</f>
@@ -14212,7 +14211,7 @@
       </c>
       <c r="AC12" s="15">
         <f t="shared" ref="AC12:AC26" si="5">I12</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD12" s="15">
         <f>12+2/7</f>
@@ -14220,19 +14219,18 @@
       </c>
       <c r="AE12" s="15">
         <f t="shared" ref="AE12:AE26" si="6">K12</f>
-        <v>3.05</v>
+        <v>5</v>
       </c>
       <c r="AF12" s="15">
-        <f>7+2/5</f>
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AG12" s="15">
         <f t="shared" ref="AG12:AG26" si="7">M12</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="11">
-        <f>(165+5000+125+300)*1.02</f>
-        <v>5701.8</v>
+        <f>(5000+165+135+135+405)*1</f>
+        <v>5840</v>
       </c>
       <c r="AI12" s="1">
         <f t="shared" ref="AI12:AI26" si="8">O12</f>
@@ -14244,7 +14242,7 @@
       </c>
       <c r="AK12" s="1">
         <f t="shared" ref="AK12:AK26" si="10">Q12</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AL12" s="1">
         <f>R12+AR17</f>
@@ -14252,19 +14250,19 @@
       </c>
       <c r="AM12" s="1">
         <f t="shared" ref="AM12:AM26" si="11">S12</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AN12" s="1">
         <f>T12+AR16</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO12" s="1">
         <f t="shared" ref="AO12:AO26" si="12">U12</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="4">
         <f t="shared" ref="AP12" si="13">SUM(AI12:AO12)</f>
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AQ12" s="22"/>
     </row>
@@ -14789,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AR16">
         <v>16</v>
@@ -16155,11 +16153,11 @@
     <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="N27" s="21">
         <f>SUM(N29:N43)</f>
-        <v>74072.615999999995</v>
+        <v>74210.815999999992</v>
       </c>
       <c r="AH27" s="21">
         <f>SUM(AH29:AH43)</f>
-        <v>125671.75600000001</v>
+        <v>125777.25600000001</v>
       </c>
       <c r="AQ27" s="22"/>
     </row>
@@ -16304,7 +16302,7 @@
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29" s="9">
         <v>20</v>
@@ -16463,7 +16461,7 @@
       </c>
       <c r="D30" s="9" t="str">
         <f t="shared" si="27"/>
-        <v>R. Montero</v>
+        <v>J. G. de Minaya</v>
       </c>
       <c r="E30" s="9">
         <f t="shared" ref="E30:G30" si="28">Y12</f>
@@ -16471,7 +16469,7 @@
       </c>
       <c r="F30" s="9">
         <f t="shared" si="28"/>
-        <v>81.5</v>
+        <v>46.5</v>
       </c>
       <c r="G30" s="15">
         <f t="shared" si="28"/>
@@ -16483,7 +16481,7 @@
       </c>
       <c r="I30" s="15">
         <f t="shared" ref="I30:I44" si="30">AC12</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J30" s="15">
         <f t="shared" ref="J30:J44" si="31">AD12</f>
@@ -16491,19 +16489,19 @@
       </c>
       <c r="K30" s="15">
         <f t="shared" ref="K30:K44" si="32">AE12</f>
-        <v>3.05</v>
+        <v>5</v>
       </c>
       <c r="L30" s="15">
         <f t="shared" ref="L30:L44" si="33">AF12</f>
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="M30" s="15">
         <f t="shared" ref="M30:O44" si="34">AG12</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N30" s="11">
         <f t="shared" si="34"/>
-        <v>5701.8</v>
+        <v>5840</v>
       </c>
       <c r="O30" s="1">
         <f t="shared" si="34"/>
@@ -16515,7 +16513,7 @@
       </c>
       <c r="Q30" s="1">
         <f t="shared" ref="Q30:Q44" si="36">AK12</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R30" s="1">
         <f t="shared" ref="R30:R44" si="37">AL12</f>
@@ -16523,19 +16521,18 @@
       </c>
       <c r="S30" s="1">
         <f t="shared" ref="S30:S44" si="38">AM12</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T30" s="1">
         <f t="shared" ref="T30:T44" si="39">AN12</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="U30" s="1">
-        <f t="shared" ref="U30:U44" si="40">AO12</f>
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="V30" s="4">
-        <f t="shared" ref="V30" si="41">SUM(O30:U30)</f>
-        <v>79</v>
+        <f t="shared" ref="V30" si="40">SUM(O30:U30)</f>
+        <v>84</v>
       </c>
       <c r="X30" t="s">
         <v>16</v>
@@ -16545,10 +16542,10 @@
       </c>
       <c r="Z30" s="9">
         <f>F30+(AR33*7)-112-112</f>
-        <v>67.5</v>
+        <v>32.5</v>
       </c>
       <c r="AA30" s="15">
-        <f t="shared" ref="AA30:AA44" si="42">G30</f>
+        <f t="shared" ref="AA30:AA44" si="41">G30</f>
         <v>0</v>
       </c>
       <c r="AB30" s="15">
@@ -16556,31 +16553,31 @@
         <v>10.777777777777779</v>
       </c>
       <c r="AC30" s="15">
-        <f t="shared" ref="AC30:AC44" si="43">I30</f>
-        <v>4</v>
+        <f t="shared" ref="AC30:AC44" si="42">I30</f>
+        <v>5</v>
       </c>
       <c r="AD30" s="15">
-        <f t="shared" ref="AD30:AD44" si="44">J30</f>
+        <f t="shared" ref="AD30:AD44" si="43">J30</f>
         <v>12.285714285714286</v>
       </c>
       <c r="AE30" s="15">
-        <f t="shared" ref="AE30:AE44" si="45">K30</f>
-        <v>3.05</v>
+        <f t="shared" ref="AE30:AE44" si="44">K30</f>
+        <v>5</v>
       </c>
       <c r="AF30" s="15">
-        <f t="shared" ref="AF30:AF44" si="46">L30</f>
-        <v>7.4</v>
+        <f t="shared" ref="AF30:AF44" si="45">L30</f>
+        <v>8</v>
       </c>
       <c r="AG30" s="15">
-        <f t="shared" ref="AG30:AG44" si="47">M30</f>
-        <v>6</v>
+        <f t="shared" ref="AG30:AG44" si="46">M30</f>
+        <v>0</v>
       </c>
       <c r="AH30" s="11">
-        <f>(1800+5000+125+300)*1.02</f>
-        <v>7369.5</v>
+        <f>(5000+1800+135+135+405)*1</f>
+        <v>7475</v>
       </c>
       <c r="AI30" s="1">
-        <f t="shared" ref="AI30:AI44" si="48">O30</f>
+        <f t="shared" ref="AI30:AI44" si="47">O30</f>
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
@@ -16588,28 +16585,28 @@
         <v>44</v>
       </c>
       <c r="AK30" s="1">
-        <f t="shared" ref="AK30:AK44" si="49">Q30</f>
-        <v>6</v>
+        <f t="shared" ref="AK30:AK44" si="48">Q30</f>
+        <v>9</v>
       </c>
       <c r="AL30" s="1">
-        <f t="shared" ref="AL30:AL44" si="50">R30</f>
+        <f t="shared" ref="AL30:AL44" si="49">R30</f>
         <v>35</v>
       </c>
       <c r="AM30" s="1">
-        <f t="shared" ref="AM30:AM44" si="51">S30</f>
-        <v>2</v>
+        <f t="shared" ref="AM30:AM44" si="50">S30</f>
+        <v>7</v>
       </c>
       <c r="AN30" s="1">
-        <f t="shared" ref="AN30:AN44" si="52">T30</f>
-        <v>18</v>
+        <f t="shared" ref="AN30:AN44" si="51">T30</f>
+        <v>21</v>
       </c>
       <c r="AO30" s="1">
-        <f t="shared" ref="AO30:AO44" si="53">U30</f>
-        <v>4</v>
+        <f t="shared" ref="AO30:AO44" si="52">U30</f>
+        <v>-2</v>
       </c>
       <c r="AP30" s="4">
-        <f t="shared" ref="AP30" si="54">SUM(AI30:AO30)</f>
-        <v>109</v>
+        <f t="shared" ref="AP30" si="53">SUM(AI30:AO30)</f>
+        <v>114</v>
       </c>
       <c r="AQ30" s="22"/>
     </row>
@@ -16618,14 +16615,14 @@
         <v>17</v>
       </c>
       <c r="B31" s="8" t="str">
-        <f t="shared" ref="B31" si="55">B13</f>
+        <f t="shared" ref="B31" si="54">B13</f>
         <v>DEF</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E31" s="9">
         <v>20</v>
@@ -16634,7 +16631,7 @@
         <v>50</v>
       </c>
       <c r="G31" s="15">
-        <f t="shared" ref="G31" si="56">AA13</f>
+        <f t="shared" ref="G31" si="55">AA13</f>
         <v>0</v>
       </c>
       <c r="H31" s="15">
@@ -16662,7 +16659,7 @@
         <v>3391.92</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" ref="O31" si="57">AI13</f>
+        <f t="shared" ref="O31" si="56">AI13</f>
         <v>0</v>
       </c>
       <c r="P31" s="1">
@@ -16682,7 +16679,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="U30:U44" si="57">AO13</f>
         <v>0</v>
       </c>
       <c r="V31" s="4">
@@ -16700,30 +16697,30 @@
         <v>36</v>
       </c>
       <c r="AA31" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AB31" s="15">
         <v>13</v>
       </c>
       <c r="AC31" s="15">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="AD31" s="15">
         <f t="shared" si="43"/>
         <v>4</v>
       </c>
-      <c r="AD31" s="15">
+      <c r="AE31" s="15">
         <f t="shared" si="44"/>
-        <v>4</v>
-      </c>
-      <c r="AE31" s="15">
+        <v>10</v>
+      </c>
+      <c r="AF31" s="15">
         <f t="shared" si="45"/>
-        <v>10</v>
-      </c>
-      <c r="AF31" s="15">
+        <v>2</v>
+      </c>
+      <c r="AG31" s="15">
         <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="AG31" s="15">
-        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AH31" s="11">
@@ -16731,7 +16728,7 @@
         <v>12605.04</v>
       </c>
       <c r="AI31" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
@@ -16739,23 +16736,23 @@
         <v>67</v>
       </c>
       <c r="AK31" s="1">
+        <f t="shared" si="48"/>
+        <v>6</v>
+      </c>
+      <c r="AL31" s="1">
         <f t="shared" si="49"/>
-        <v>6</v>
-      </c>
-      <c r="AL31" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AM31" s="1">
         <f t="shared" si="50"/>
-        <v>3.5</v>
-      </c>
-      <c r="AM31" s="1">
+        <v>29</v>
+      </c>
+      <c r="AN31" s="1">
         <f t="shared" si="51"/>
-        <v>29</v>
-      </c>
-      <c r="AN31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="1">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AO31" s="1">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AP31" s="4">
@@ -16773,10 +16770,10 @@
         <v>DEF</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E32" s="9">
         <v>20</v>
@@ -16833,7 +16830,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="V32" s="4">
@@ -16851,30 +16848,30 @@
         <v>36</v>
       </c>
       <c r="AA32" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AB32" s="15">
         <v>13</v>
       </c>
       <c r="AC32" s="15">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="AD32" s="15">
         <f t="shared" si="43"/>
         <v>4</v>
       </c>
-      <c r="AD32" s="15">
+      <c r="AE32" s="15">
         <f t="shared" si="44"/>
-        <v>4</v>
-      </c>
-      <c r="AE32" s="15">
+        <v>10</v>
+      </c>
+      <c r="AF32" s="15">
         <f t="shared" si="45"/>
-        <v>10</v>
-      </c>
-      <c r="AF32" s="15">
+        <v>2</v>
+      </c>
+      <c r="AG32" s="15">
         <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="AG32" s="15">
-        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AH32" s="11">
@@ -16882,7 +16879,7 @@
         <v>12605.04</v>
       </c>
       <c r="AI32" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AJ32" s="1">
@@ -16890,23 +16887,23 @@
         <v>67</v>
       </c>
       <c r="AK32" s="1">
+        <f t="shared" si="48"/>
+        <v>6</v>
+      </c>
+      <c r="AL32" s="1">
         <f t="shared" si="49"/>
-        <v>6</v>
-      </c>
-      <c r="AL32" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AM32" s="1">
         <f t="shared" si="50"/>
-        <v>3.5</v>
-      </c>
-      <c r="AM32" s="1">
+        <v>29</v>
+      </c>
+      <c r="AN32" s="1">
         <f t="shared" si="51"/>
-        <v>29</v>
-      </c>
-      <c r="AN32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="1">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AO32" s="1">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AP32" s="4">
@@ -16933,7 +16930,7 @@
         <v>100</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E33" s="9">
         <v>20</v>
@@ -16990,7 +16987,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="V33" s="4">
@@ -17008,30 +17005,30 @@
         <v>36</v>
       </c>
       <c r="AA33" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AB33" s="15">
         <v>13</v>
       </c>
       <c r="AC33" s="15">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="AD33" s="15">
         <f t="shared" si="43"/>
         <v>4</v>
       </c>
-      <c r="AD33" s="15">
+      <c r="AE33" s="15">
         <f t="shared" si="44"/>
-        <v>4</v>
-      </c>
-      <c r="AE33" s="15">
+        <v>10</v>
+      </c>
+      <c r="AF33" s="15">
         <f t="shared" si="45"/>
-        <v>10</v>
-      </c>
-      <c r="AF33" s="15">
+        <v>2</v>
+      </c>
+      <c r="AG33" s="15">
         <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="AG33" s="15">
-        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AH33" s="11">
@@ -17039,7 +17036,7 @@
         <v>12605.04</v>
       </c>
       <c r="AI33" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AJ33" s="1">
@@ -17047,23 +17044,23 @@
         <v>67</v>
       </c>
       <c r="AK33" s="1">
+        <f t="shared" si="48"/>
+        <v>6</v>
+      </c>
+      <c r="AL33" s="1">
         <f t="shared" si="49"/>
-        <v>6</v>
-      </c>
-      <c r="AL33" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AM33" s="1">
         <f t="shared" si="50"/>
-        <v>3.5</v>
-      </c>
-      <c r="AM33" s="1">
+        <v>29</v>
+      </c>
+      <c r="AN33" s="1">
         <f t="shared" si="51"/>
-        <v>29</v>
-      </c>
-      <c r="AN33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="1">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AO33" s="1">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AP33" s="4">
@@ -17094,7 +17091,7 @@
         <v>100</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E34" s="9">
         <v>20</v>
@@ -17151,7 +17148,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="V34" s="4">
@@ -17169,30 +17166,30 @@
         <v>36</v>
       </c>
       <c r="AA34" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AB34" s="15">
         <v>13</v>
       </c>
       <c r="AC34" s="15">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="AD34" s="15">
         <f t="shared" si="43"/>
         <v>4</v>
       </c>
-      <c r="AD34" s="15">
+      <c r="AE34" s="15">
         <f t="shared" si="44"/>
-        <v>4</v>
-      </c>
-      <c r="AE34" s="15">
+        <v>10</v>
+      </c>
+      <c r="AF34" s="15">
         <f t="shared" si="45"/>
-        <v>10</v>
-      </c>
-      <c r="AF34" s="15">
+        <v>2</v>
+      </c>
+      <c r="AG34" s="15">
         <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="AG34" s="15">
-        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AH34" s="11">
@@ -17200,7 +17197,7 @@
         <v>12605.04</v>
       </c>
       <c r="AI34" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AJ34" s="1">
@@ -17208,23 +17205,23 @@
         <v>67</v>
       </c>
       <c r="AK34" s="1">
+        <f t="shared" si="48"/>
+        <v>6</v>
+      </c>
+      <c r="AL34" s="1">
         <f t="shared" si="49"/>
-        <v>6</v>
-      </c>
-      <c r="AL34" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AM34" s="1">
         <f t="shared" si="50"/>
-        <v>3.5</v>
-      </c>
-      <c r="AM34" s="1">
+        <v>29</v>
+      </c>
+      <c r="AN34" s="1">
         <f t="shared" si="51"/>
-        <v>29</v>
-      </c>
-      <c r="AN34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="1">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AO34" s="1">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AP34" s="4">
@@ -17245,7 +17242,7 @@
         <v>100</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E35" s="9">
         <v>20</v>
@@ -17302,7 +17299,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="V35" s="4">
@@ -17320,30 +17317,30 @@
         <v>36</v>
       </c>
       <c r="AA35" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AB35" s="15">
         <v>13</v>
       </c>
       <c r="AC35" s="15">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="AD35" s="15">
         <f t="shared" si="43"/>
         <v>4</v>
       </c>
-      <c r="AD35" s="15">
+      <c r="AE35" s="15">
         <f t="shared" si="44"/>
-        <v>4</v>
-      </c>
-      <c r="AE35" s="15">
+        <v>10</v>
+      </c>
+      <c r="AF35" s="15">
         <f t="shared" si="45"/>
-        <v>10</v>
-      </c>
-      <c r="AF35" s="15">
+        <v>2</v>
+      </c>
+      <c r="AG35" s="15">
         <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="AG35" s="15">
-        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AH35" s="11">
@@ -17351,7 +17348,7 @@
         <v>12605.04</v>
       </c>
       <c r="AI35" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AJ35" s="1">
@@ -17359,23 +17356,23 @@
         <v>67</v>
       </c>
       <c r="AK35" s="1">
+        <f t="shared" si="48"/>
+        <v>6</v>
+      </c>
+      <c r="AL35" s="1">
         <f t="shared" si="49"/>
-        <v>6</v>
-      </c>
-      <c r="AL35" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AM35" s="1">
         <f t="shared" si="50"/>
-        <v>3.5</v>
-      </c>
-      <c r="AM35" s="1">
+        <v>29</v>
+      </c>
+      <c r="AN35" s="1">
         <f t="shared" si="51"/>
-        <v>29</v>
-      </c>
-      <c r="AN35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="1">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AO35" s="1">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AP35" s="4">
@@ -17462,7 +17459,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="V36" s="4">
@@ -17475,7 +17472,7 @@
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
       <c r="AA36" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AB36" s="15">
@@ -17483,28 +17480,28 @@
         <v>2</v>
       </c>
       <c r="AC36" s="15">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AD36" s="15">
         <f t="shared" si="43"/>
         <v>2</v>
       </c>
-      <c r="AD36" s="15">
+      <c r="AE36" s="15">
         <f t="shared" si="44"/>
         <v>2</v>
       </c>
-      <c r="AE36" s="15">
+      <c r="AF36" s="15">
         <f t="shared" si="45"/>
         <v>2</v>
       </c>
-      <c r="AF36" s="15">
+      <c r="AG36" s="15">
         <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="AG36" s="15">
-        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AH36" s="11"/>
       <c r="AI36" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AJ36" s="1">
@@ -17512,23 +17509,23 @@
         <v>0</v>
       </c>
       <c r="AK36" s="1">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AL36" s="1">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="AL36" s="1">
+      <c r="AM36" s="1">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AM36" s="1">
+      <c r="AN36" s="1">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="AN36" s="1">
+      <c r="AO36" s="1">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AO36" s="1">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AP36" s="4">
@@ -17615,7 +17612,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="V37" s="4">
@@ -17628,7 +17625,7 @@
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
       <c r="AA37" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AB37" s="15">
@@ -17636,28 +17633,28 @@
         <v>2</v>
       </c>
       <c r="AC37" s="15">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AD37" s="15">
         <f t="shared" si="43"/>
         <v>2</v>
       </c>
-      <c r="AD37" s="15">
+      <c r="AE37" s="15">
         <f t="shared" si="44"/>
         <v>2</v>
       </c>
-      <c r="AE37" s="15">
+      <c r="AF37" s="15">
         <f t="shared" si="45"/>
         <v>2</v>
       </c>
-      <c r="AF37" s="15">
+      <c r="AG37" s="15">
         <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="AG37" s="15">
-        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AH37" s="11"/>
       <c r="AI37" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AJ37" s="1">
@@ -17665,23 +17662,23 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AL37" s="1">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="AL37" s="1">
+      <c r="AM37" s="1">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AM37" s="1">
+      <c r="AN37" s="1">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="AN37" s="1">
+      <c r="AO37" s="1">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AO37" s="1">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AP37" s="4">
@@ -17768,7 +17765,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="V38" s="4">
@@ -17781,7 +17778,7 @@
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
       <c r="AA38" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AB38" s="15">
@@ -17789,28 +17786,28 @@
         <v>2</v>
       </c>
       <c r="AC38" s="15">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AD38" s="15">
         <f t="shared" si="43"/>
         <v>2</v>
       </c>
-      <c r="AD38" s="15">
+      <c r="AE38" s="15">
         <f t="shared" si="44"/>
         <v>2</v>
       </c>
-      <c r="AE38" s="15">
+      <c r="AF38" s="15">
         <f t="shared" si="45"/>
         <v>2</v>
       </c>
-      <c r="AF38" s="15">
+      <c r="AG38" s="15">
         <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="AG38" s="15">
-        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AH38" s="11"/>
       <c r="AI38" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AJ38" s="1">
@@ -17818,23 +17815,23 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AL38" s="1">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="AL38" s="1">
+      <c r="AM38" s="1">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AM38" s="1">
+      <c r="AN38" s="1">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="AN38" s="1">
+      <c r="AO38" s="1">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AO38" s="1">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AP38" s="4">
@@ -17924,7 +17921,7 @@
         <v>18</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="57"/>
         <v>3</v>
       </c>
       <c r="V39" s="4">
@@ -17942,7 +17939,7 @@
         <v>19.5</v>
       </c>
       <c r="AA39" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AB39" s="15">
@@ -17950,23 +17947,23 @@
         <v>9</v>
       </c>
       <c r="AC39" s="15">
+        <f t="shared" si="42"/>
+        <v>5.7</v>
+      </c>
+      <c r="AD39" s="15">
         <f t="shared" si="43"/>
-        <v>5.7</v>
-      </c>
-      <c r="AD39" s="15">
+        <v>13.285714285714286</v>
+      </c>
+      <c r="AE39" s="15">
         <f t="shared" si="44"/>
-        <v>13.285714285714286</v>
-      </c>
-      <c r="AE39" s="15">
+        <v>5.25</v>
+      </c>
+      <c r="AF39" s="15">
         <f t="shared" si="45"/>
-        <v>5.25</v>
-      </c>
-      <c r="AF39" s="15">
+        <v>7.4</v>
+      </c>
+      <c r="AG39" s="15">
         <f t="shared" si="46"/>
-        <v>7.4</v>
-      </c>
-      <c r="AG39" s="15">
-        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="AH39" s="11">
@@ -17974,7 +17971,7 @@
         <v>9398</v>
       </c>
       <c r="AI39" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AJ39" s="1">
@@ -17982,23 +17979,23 @@
         <v>30</v>
       </c>
       <c r="AK39" s="1">
+        <f t="shared" si="48"/>
+        <v>13</v>
+      </c>
+      <c r="AL39" s="1">
         <f t="shared" si="49"/>
-        <v>13</v>
-      </c>
-      <c r="AL39" s="1">
+        <v>42</v>
+      </c>
+      <c r="AM39" s="1">
         <f t="shared" si="50"/>
-        <v>42</v>
-      </c>
-      <c r="AM39" s="1">
+        <v>8</v>
+      </c>
+      <c r="AN39" s="1">
         <f t="shared" si="51"/>
-        <v>8</v>
-      </c>
-      <c r="AN39" s="1">
+        <v>18</v>
+      </c>
+      <c r="AO39" s="1">
         <f t="shared" si="52"/>
-        <v>18</v>
-      </c>
-      <c r="AO39" s="1">
-        <f t="shared" si="53"/>
         <v>3</v>
       </c>
       <c r="AP39" s="4">
@@ -18088,7 +18085,7 @@
         <v>16</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="V40" s="4">
@@ -18106,7 +18103,7 @@
         <v>23.5</v>
       </c>
       <c r="AA40" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AB40" s="15">
@@ -18114,23 +18111,23 @@
         <v>10.777777777777779</v>
       </c>
       <c r="AC40" s="15">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="AD40" s="15">
         <f t="shared" si="43"/>
-        <v>3</v>
-      </c>
-      <c r="AD40" s="15">
+        <v>12</v>
+      </c>
+      <c r="AE40" s="15">
         <f t="shared" si="44"/>
-        <v>12</v>
-      </c>
-      <c r="AE40" s="15">
+        <v>5.2</v>
+      </c>
+      <c r="AF40" s="15">
         <f t="shared" si="45"/>
-        <v>5.2</v>
-      </c>
-      <c r="AF40" s="15">
+        <v>7</v>
+      </c>
+      <c r="AG40" s="15">
         <f t="shared" si="46"/>
-        <v>7</v>
-      </c>
-      <c r="AG40" s="15">
-        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="AH40" s="11">
@@ -18138,7 +18135,7 @@
         <v>6732.8360000000002</v>
       </c>
       <c r="AI40" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AJ40" s="1">
@@ -18146,23 +18143,23 @@
         <v>44</v>
       </c>
       <c r="AK40" s="1">
+        <f t="shared" si="48"/>
+        <v>3</v>
+      </c>
+      <c r="AL40" s="1">
         <f t="shared" si="49"/>
-        <v>3</v>
-      </c>
-      <c r="AL40" s="1">
+        <v>33</v>
+      </c>
+      <c r="AM40" s="1">
         <f t="shared" si="50"/>
-        <v>33</v>
-      </c>
-      <c r="AM40" s="1">
+        <v>8</v>
+      </c>
+      <c r="AN40" s="1">
         <f t="shared" si="51"/>
-        <v>8</v>
-      </c>
-      <c r="AN40" s="1">
+        <v>16</v>
+      </c>
+      <c r="AO40" s="1">
         <f t="shared" si="52"/>
-        <v>16</v>
-      </c>
-      <c r="AO40" s="1">
-        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="AP40" s="4">
@@ -18252,7 +18249,7 @@
         <v>18</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="V41" s="4">
@@ -18270,7 +18267,7 @@
         <v>19.5</v>
       </c>
       <c r="AA41" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AB41" s="15">
@@ -18278,23 +18275,23 @@
         <v>9.4285714285714288</v>
       </c>
       <c r="AC41" s="15">
+        <f t="shared" si="42"/>
+        <v>5</v>
+      </c>
+      <c r="AD41" s="15">
         <f t="shared" si="43"/>
-        <v>5</v>
-      </c>
-      <c r="AD41" s="15">
+        <v>12.285714285714286</v>
+      </c>
+      <c r="AE41" s="15">
         <f t="shared" si="44"/>
-        <v>12.285714285714286</v>
-      </c>
-      <c r="AE41" s="15">
+        <v>4</v>
+      </c>
+      <c r="AF41" s="15">
         <f t="shared" si="45"/>
-        <v>4</v>
-      </c>
-      <c r="AF41" s="15">
+        <v>7.4</v>
+      </c>
+      <c r="AG41" s="15">
         <f t="shared" si="46"/>
-        <v>7.4</v>
-      </c>
-      <c r="AG41" s="15">
-        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="AH41" s="11">
@@ -18302,7 +18299,7 @@
         <v>6512.22</v>
       </c>
       <c r="AI41" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AJ41" s="1">
@@ -18310,23 +18307,23 @@
         <v>33</v>
       </c>
       <c r="AK41" s="1">
+        <f t="shared" si="48"/>
+        <v>9</v>
+      </c>
+      <c r="AL41" s="1">
         <f t="shared" si="49"/>
-        <v>9</v>
-      </c>
-      <c r="AL41" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM41" s="1">
         <f t="shared" si="50"/>
-        <v>35</v>
-      </c>
-      <c r="AM41" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN41" s="1">
         <f t="shared" si="51"/>
-        <v>4</v>
-      </c>
-      <c r="AN41" s="1">
+        <v>18</v>
+      </c>
+      <c r="AO41" s="1">
         <f t="shared" si="52"/>
-        <v>18</v>
-      </c>
-      <c r="AO41" s="1">
-        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="AP41" s="4">
@@ -18416,7 +18413,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="V42" s="4">
@@ -18429,7 +18426,7 @@
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
       <c r="AA42" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AB42" s="15">
@@ -18437,28 +18434,28 @@
         <v>2</v>
       </c>
       <c r="AC42" s="15">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AD42" s="15">
         <f t="shared" si="43"/>
         <v>2</v>
       </c>
-      <c r="AD42" s="15">
+      <c r="AE42" s="15">
         <f t="shared" si="44"/>
         <v>2</v>
       </c>
-      <c r="AE42" s="15">
+      <c r="AF42" s="15">
         <f t="shared" si="45"/>
         <v>2</v>
       </c>
-      <c r="AF42" s="15">
+      <c r="AG42" s="15">
         <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="AG42" s="15">
-        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AH42" s="11"/>
       <c r="AI42" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AJ42" s="1">
@@ -18466,23 +18463,23 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AL42" s="1">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="AL42" s="1">
+      <c r="AM42" s="1">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AM42" s="1">
+      <c r="AN42" s="1">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="AN42" s="1">
+      <c r="AO42" s="1">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AO42" s="1">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AP42" s="4">
@@ -18572,7 +18569,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="V43" s="4">
@@ -18585,7 +18582,7 @@
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
       <c r="AA43" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AB43" s="15">
@@ -18593,28 +18590,28 @@
         <v>2</v>
       </c>
       <c r="AC43" s="15">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AD43" s="15">
         <f t="shared" si="43"/>
         <v>2</v>
       </c>
-      <c r="AD43" s="15">
+      <c r="AE43" s="15">
         <f t="shared" si="44"/>
         <v>2</v>
       </c>
-      <c r="AE43" s="15">
+      <c r="AF43" s="15">
         <f t="shared" si="45"/>
         <v>2</v>
       </c>
-      <c r="AF43" s="15">
+      <c r="AG43" s="15">
         <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="AG43" s="15">
-        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AH43" s="11"/>
       <c r="AI43" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AJ43" s="1">
@@ -18622,23 +18619,23 @@
         <v>0</v>
       </c>
       <c r="AK43" s="1">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AL43" s="1">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="AL43" s="1">
+      <c r="AM43" s="1">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AM43" s="1">
+      <c r="AN43" s="1">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="AN43" s="1">
+      <c r="AO43" s="1">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AO43" s="1">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AP43" s="4">
@@ -18728,7 +18725,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="V44" s="4">
@@ -18741,7 +18738,7 @@
       <c r="Y44" s="9"/>
       <c r="Z44" s="9"/>
       <c r="AA44" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AB44" s="15">
@@ -18749,28 +18746,28 @@
         <v>2</v>
       </c>
       <c r="AC44" s="15">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AD44" s="15">
         <f t="shared" si="43"/>
         <v>2</v>
       </c>
-      <c r="AD44" s="15">
+      <c r="AE44" s="15">
         <f t="shared" si="44"/>
         <v>2</v>
       </c>
-      <c r="AE44" s="15">
+      <c r="AF44" s="15">
         <f t="shared" si="45"/>
         <v>2</v>
       </c>
-      <c r="AF44" s="15">
+      <c r="AG44" s="15">
         <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="AG44" s="15">
-        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AH44" s="11"/>
       <c r="AI44" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AJ44" s="1">
@@ -18778,23 +18775,23 @@
         <v>0</v>
       </c>
       <c r="AK44" s="1">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AL44" s="1">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="AL44" s="1">
+      <c r="AM44" s="1">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AM44" s="1">
+      <c r="AN44" s="1">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="AN44" s="1">
+      <c r="AO44" s="1">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="AO44" s="1">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AP44" s="4">
@@ -18806,11 +18803,11 @@
     <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="N45" s="21">
         <f>SUM(N47:N61)</f>
-        <v>173316.91600000003</v>
+        <v>173422.41600000003</v>
       </c>
       <c r="AH45" s="21">
         <f>SUM(AH47:AH61)</f>
-        <v>179852.10499999998</v>
+        <v>180055.55499999996</v>
       </c>
       <c r="AQ45" s="22"/>
     </row>
@@ -19120,7 +19117,7 @@
       </c>
       <c r="D48" s="9" t="str">
         <f t="shared" si="108"/>
-        <v>R. Montero</v>
+        <v>J. G. de Minaya</v>
       </c>
       <c r="E48" s="9">
         <f t="shared" ref="E48:G48" si="109">Y30</f>
@@ -19128,7 +19125,7 @@
       </c>
       <c r="F48" s="9">
         <f t="shared" si="109"/>
-        <v>67.5</v>
+        <v>32.5</v>
       </c>
       <c r="G48" s="15">
         <f t="shared" si="109"/>
@@ -19140,7 +19137,7 @@
       </c>
       <c r="I48" s="15">
         <f t="shared" ref="I48:I62" si="111">AC30</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J48" s="15">
         <f t="shared" ref="J48:J59" si="112">AD30</f>
@@ -19148,19 +19145,19 @@
       </c>
       <c r="K48" s="15">
         <f t="shared" ref="K48:K59" si="113">AE30</f>
-        <v>3.05</v>
+        <v>5</v>
       </c>
       <c r="L48" s="15">
         <f t="shared" ref="L48:L59" si="114">AF30</f>
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="M48" s="15">
         <f t="shared" ref="M48:O59" si="115">AG30</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N48" s="11">
         <f t="shared" si="115"/>
-        <v>7369.5</v>
+        <v>7475</v>
       </c>
       <c r="O48" s="1">
         <f t="shared" si="115"/>
@@ -19172,7 +19169,7 @@
       </c>
       <c r="Q48" s="1">
         <f t="shared" ref="Q48:Q62" si="117">AK30</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R48" s="1">
         <f t="shared" ref="R48:R59" si="118">AL30</f>
@@ -19180,19 +19177,19 @@
       </c>
       <c r="S48" s="1">
         <f t="shared" ref="S48:S59" si="119">AM30</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T48" s="1">
         <f t="shared" ref="T48:T59" si="120">AN30</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="U48" s="1">
         <f t="shared" ref="U48:U59" si="121">AO30</f>
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="V48" s="4">
         <f t="shared" ref="V48" si="122">SUM(O48:U48)</f>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="X48" t="s">
         <v>16</v>
@@ -19202,7 +19199,7 @@
       </c>
       <c r="Z48" s="9">
         <f>F48+(AR52*7)-112-112</f>
-        <v>18.5</v>
+        <v>-16.5</v>
       </c>
       <c r="AA48" s="15">
         <f t="shared" ref="AA48:AA62" si="123">G48</f>
@@ -19214,7 +19211,7 @@
       </c>
       <c r="AC48" s="15">
         <f t="shared" ref="AC48:AC62" si="125">I48</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD48" s="15">
         <f t="shared" ref="AD48:AD62" si="126">J48</f>
@@ -19222,18 +19219,19 @@
       </c>
       <c r="AE48" s="15">
         <f t="shared" ref="AE48:AE62" si="127">K48</f>
-        <v>3.05</v>
+        <v>5</v>
       </c>
       <c r="AF48" s="15">
         <f t="shared" ref="AF48:AF62" si="128">L48</f>
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AG48" s="15">
-        <v>18</v>
+        <f>16+2/4</f>
+        <v>16.5</v>
       </c>
       <c r="AH48" s="11">
-        <f>(1800+5000+125+300)*1.053</f>
-        <v>7607.9249999999993</v>
+        <f>(5000+1800+135+135+405)*1.045</f>
+        <v>7811.3749999999991</v>
       </c>
       <c r="AI48" s="1">
         <f t="shared" ref="AI48:AI62" si="129">O48</f>
@@ -19245,7 +19243,7 @@
       </c>
       <c r="AK48" s="1">
         <f t="shared" ref="AK48:AK62" si="131">Q48</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AL48" s="1">
         <f t="shared" ref="AL48:AL62" si="132">R48</f>
@@ -19253,19 +19251,19 @@
       </c>
       <c r="AM48" s="1">
         <f t="shared" ref="AM48:AM62" si="133">S48</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AN48" s="1">
         <f t="shared" ref="AN48:AN62" si="134">T48</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO48" s="1">
         <f>U48+AR52</f>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AP48" s="4">
         <f t="shared" ref="AP48" si="135">SUM(AI48:AO48)</f>
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AQ48" s="22"/>
     </row>
@@ -19279,7 +19277,7 @@
       </c>
       <c r="C49" s="9" t="str">
         <f t="shared" si="136"/>
-        <v>TEC</v>
+        <v>RAP</v>
       </c>
       <c r="D49" s="9" t="str">
         <f t="shared" si="136"/>
@@ -19442,7 +19440,7 @@
       </c>
       <c r="C50" s="9" t="str">
         <f t="shared" si="139"/>
-        <v>CAB</v>
+        <v>POT</v>
       </c>
       <c r="D50" s="9" t="str">
         <f t="shared" si="139"/>
@@ -19773,7 +19771,7 @@
         <v>DEF</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D52" s="9" t="str">
         <f t="shared" si="147"/>
@@ -20257,7 +20255,7 @@
         <v>101</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E55" s="9">
         <v>22</v>
@@ -20405,10 +20403,10 @@
         <v>INN</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E56" s="9">
         <v>22</v>
@@ -21051,7 +21049,7 @@
         <v>100</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E60" s="9">
         <v>22</v>
@@ -21202,7 +21200,7 @@
         <v>86</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E61" s="9">
         <v>22</v>
@@ -21350,10 +21348,10 @@
         <v>DAV</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E62" s="9">
         <v>22</v>

--- a/projects/current/hattrick/z_CA.xlsx
+++ b/projects/current/hattrick/z_CA.xlsx
@@ -13759,8 +13759,8 @@
   </sheetPr>
   <dimension ref="A1:AS106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X56" sqref="X56"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AS18" activeCellId="1" sqref="AS33 AS18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16619,7 +16619,7 @@
         <v>DEF</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>118</v>
@@ -16679,7 +16679,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" ref="U30:U44" si="57">AO13</f>
+        <f t="shared" ref="U31:U44" si="57">AO13</f>
         <v>0</v>
       </c>
       <c r="V31" s="4">
@@ -16770,7 +16770,7 @@
         <v>DEF</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>118</v>
@@ -19277,7 +19277,7 @@
       </c>
       <c r="C49" s="9" t="str">
         <f t="shared" si="136"/>
-        <v>RAP</v>
+        <v>CAB</v>
       </c>
       <c r="D49" s="9" t="str">
         <f t="shared" si="136"/>
@@ -19440,7 +19440,7 @@
       </c>
       <c r="C50" s="9" t="str">
         <f t="shared" si="139"/>
-        <v>POT</v>
+        <v>CAB</v>
       </c>
       <c r="D50" s="9" t="str">
         <f t="shared" si="139"/>
@@ -20252,7 +20252,7 @@
         <v>INN</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>119</v>
@@ -21046,7 +21046,7 @@
         <v>DAV</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>120</v>

--- a/projects/current/hattrick/z_CA.xlsx
+++ b/projects/current/hattrick/z_CA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="TACTICA" sheetId="1" r:id="rId1"/>
@@ -921,8 +921,8 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13759,8 +13759,8 @@
   </sheetPr>
   <dimension ref="A1:AS106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AS18" activeCellId="1" sqref="AS33 AS18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13839,6 +13839,10 @@
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>107</v>
+      </c>
+      <c r="AN5">
+        <f>31*7</f>
+        <v>217</v>
       </c>
       <c r="AQ5" s="22"/>
     </row>

--- a/projects/current/hattrick/z_CA.xlsx
+++ b/projects/current/hattrick/z_CA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Holding-Ideas\projects\current\hattrick\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\HI\HI\projects\current\hattrick\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34193E58-3494-4933-8D56-92DEB0CE64CD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TACTICA" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="CA_VADER" sheetId="6" r:id="rId5"/>
     <sheet name="MERCADO_PORTERO" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -400,7 +401,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ [$€-C0A]_-;\-* #,##0\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
@@ -625,7 +626,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="http://www.escuelaercantohattrick.com/images/stories/tablassalariales.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://www.escuelaercantohattrick.com/images/stories/tablassalariales.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -915,14 +922,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,15 +1146,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A60:G69"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,14 +1291,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:AQ40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:S36"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4432,14 +4439,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AP90"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection sqref="A1:AP136"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13753,14 +13760,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AS106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AN5" sqref="AN5"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21908,10 +21915,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
